--- a/Specification/테이블 명세서/인적자원관리_테이블명세서_v1_0_2.xlsx
+++ b/Specification/테이블 명세서/인적자원관리_테이블명세서_v1_0_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HKIT\Desktop\KIT-PMS\Specification\테이블 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B936F-28A6-47A3-AF6D-40A3C22D80F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D452A-9E18-476E-85F9-F42A43463746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="213">
   <si>
     <t xml:space="preserve"> 문서ID</t>
   </si>
@@ -794,6 +794,10 @@
   </si>
   <si>
     <t>유니크 키</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1065,70 +1069,70 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52821BEC-200F-48D9-8998-6FEBC01E8907}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1373,18 +1377,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1396,8 +1400,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1422,10 +1426,10 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="32">
         <v>44823</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1450,73 +1454,73 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
@@ -1525,156 +1529,156 @@
       <c r="B8" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="30" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="37"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="28" t="s">
+      <c r="K14" s="30"/>
+      <c r="L14" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
@@ -2212,7 +2216,7 @@
         <v>120</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -2447,909 +2451,6 @@
       <c r="J43" s="21"/>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3" xr:uid="{2BA54AEC-A2D7-4254-A484-60ADF55F250B}">
-      <formula1>"KEY,MAIN,ACTION"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DA835-865B-4BB4-AB63-CB464EA0B398}">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="46">
-        <v>44821.642395833333</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="24">
-      <c r="A5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="33"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="33"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="49"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="7">
-        <v>3</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="7">
-        <v>4</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="7">
-        <v>5</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="7">
-        <v>6</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="7">
-        <v>7</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="7">
-        <v>8</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="7">
-        <v>9</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="7">
-        <v>10</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="7">
-        <v>11</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="7">
-        <v>12</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="7">
-        <v>13</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="7">
-        <v>14</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="7">
-        <v>15</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="25">
-        <v>16</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="25">
-        <v>17</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="25">
-        <v>18</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3393,6 +2494,909 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3" xr:uid="{2BA54AEC-A2D7-4254-A484-60ADF55F250B}">
+      <formula1>"KEY,MAIN,ACTION"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DA835-865B-4BB4-AB63-CB464EA0B398}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="32">
+        <v>44821.642395833333</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="A5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="35"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="35"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="7">
+        <v>5</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="7">
+        <v>7</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="7">
+        <v>8</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7">
+        <v>9</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="7">
+        <v>10</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="7">
+        <v>11</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="7">
+        <v>12</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="7">
+        <v>13</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="7">
+        <v>14</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="7">
+        <v>15</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="25">
+        <v>16</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="25">
+        <v>17</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="25">
+        <v>18</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:K14"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J3" xr:uid="{21D538F9-D6E2-4E17-900C-88285B7510A6}">
       <formula1>"KEY,MAIN,ACTION"</formula1>
     </dataValidation>
@@ -3431,18 +3435,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -3454,8 +3458,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="48"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3482,10 +3486,10 @@
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="32">
         <v>44821.662187499998</v>
       </c>
-      <c r="E3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
@@ -3508,231 +3512,231 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" ht="24">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="37"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="30" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="33"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="36"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="37"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="30" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="33"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="28" t="s">
+      <c r="K14" s="49"/>
+      <c r="L14" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="13" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="49"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7">
@@ -4164,6 +4168,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D12:H12"/>
@@ -4180,27 +4205,6 @@
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
